--- a/Column_header_definitions_cw.xlsx
+++ b/Column_header_definitions_cw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiavasallovega/repolab/work/virusbeacon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BABC41-4E3B-EF42-BD4C-032E497FEFF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D43138-E778-6746-8AD8-DD658D961D25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" activeTab="1" xr2:uid="{A5DCDAB2-69CA-D348-BE3C-DEAEE3D253DE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" xr2:uid="{A5DCDAB2-69CA-D348-BE3C-DEAEE3D253DE}"/>
   </bookViews>
   <sheets>
     <sheet name="REGION query" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="82">
   <si>
     <t>Variant Annotation</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>Definition</t>
-  </si>
-  <si>
-    <t>we currently have "Survived" in this field, we could either show this as it is or harmonize to "non-fatal" or something like that</t>
   </si>
   <si>
     <t>Variant frequency in dataset, as in AF field in VCF</t>
@@ -265,6 +262,21 @@
   </si>
   <si>
     <t>ID of locus (loci) affected by variant</t>
+  </si>
+  <si>
+    <t>GENOMIC REGION</t>
+  </si>
+  <si>
+    <t>23 column-table&gt; Why not show this response as in SNP query response in those three endpoints at least</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed three column header names: GENE_CODING,  GENE_ID and TRANSCRIPT_ID </t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>Disease outcome&gt; SO FAR ONLY ONE RUN HAS THIS INFO, SO MAYBE REMOVE THIS COLUMN FOR NOW?</t>
   </si>
 </sst>
 </file>
@@ -349,7 +361,7 @@
       <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +371,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -438,6 +456,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CE1CEB-88A7-7E47-83C5-61403ABBCED0}">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J4"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -791,8 +815,8 @@
       <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>1</v>
+      <c r="F2" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>2</v>
@@ -801,10 +825,10 @@
         <v>3</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>6</v>
@@ -846,7 +870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="240">
+    <row r="3" spans="1:23" ht="75">
       <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
@@ -913,8 +937,8 @@
       <c r="V3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="19" t="s">
-        <v>57</v>
+      <c r="W3" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="187">
@@ -928,67 +952,96 @@
         <v>38</v>
       </c>
       <c r="D4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="20" t="s">
+      <c r="P4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="20" t="s">
         <v>73</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>74</v>
       </c>
       <c r="R4" s="22" t="s">
         <v>46</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U4" s="22" t="s">
         <v>47</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W4" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="78" customHeight="1"/>
+    <row r="6" spans="1:23" ht="34">
+      <c r="B6" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="187">
+      <c r="A7" s="24">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="187">
+      <c r="A8" s="24">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="187">
+      <c r="A9" s="24">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -998,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511525F5-2177-D04A-AEDE-4E89C9A4F42A}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1076,10 +1129,10 @@
         <v>38</v>
       </c>
       <c r="D4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -1110,8 +1163,8 @@
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>1</v>
+      <c r="B7" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>2</v>
@@ -1120,10 +1173,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>6</v>
@@ -1157,22 +1210,22 @@
         <v>34</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17">
@@ -1281,40 +1334,40 @@
         <v>34</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E15" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="G15" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>46</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K15" s="22" t="s">
         <v>47</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="7:7">
